--- a/OrangeHRM/OrangeHRM/resources/users.xlsx
+++ b/OrangeHRM/OrangeHRM/resources/users.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>First</t>
   </si>
@@ -28,6 +28,45 @@
   </si>
   <si>
     <t>Last</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>firstUser</t>
+  </si>
+  <si>
+    <t>p4ssword</t>
+  </si>
+  <si>
+    <t>Gherkin</t>
+  </si>
+  <si>
+    <t>Parses</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>gjesus</t>
+  </si>
+  <si>
+    <t>messiah</t>
   </si>
 </sst>
 </file>
@@ -345,15 +384,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -362,6 +405,61 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
